--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1719155.797963343</v>
+        <v>-1722016.611755635</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.25605717454633</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>63.44804626139691</v>
       </c>
       <c r="U2" t="n">
-        <v>93.4617447431915</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>138.8174407621349</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>6.506697613110331</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>121.454468397428</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,25 +820,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14.41511921724106</v>
       </c>
       <c r="I4" t="n">
-        <v>102.2066297964758</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>219.4450108596166</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>225.1346772411287</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>10.1845637256568</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>107.2977824924682</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>25.27076883090995</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>190.47763782027</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.74167907658358</v>
+        <v>11.74167907658357</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.8724504177534</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>349.7687130887324</v>
+        <v>221.896262670985</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,7 +1227,7 @@
         <v>135.438182924131</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>17.41927898131018</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>17.41927898130477</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>192.4848946346715</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413786</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169637</v>
+        <v>105.4699075169636</v>
       </c>
       <c r="S10" t="n">
-        <v>196.1788263911949</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1204706627545</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>266.4838332149176</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>2.280388335240862</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>47.84205650383181</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856536</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012152</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T13" t="n">
-        <v>183.0072805230176</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695514</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986276</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.421048022931</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922686</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856536</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012152</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>176.762144112143</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y16" t="n">
-        <v>101.9154861872842</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695511</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763441</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922686</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101215</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W19" t="n">
-        <v>274.415334860738</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695511</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>104.891381999982</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.421048022931</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922686</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101215</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V22" t="n">
-        <v>226.3926032458664</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144416</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569551</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="24">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986276</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922686</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428541</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012149</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V25" t="n">
-        <v>31.40247677522967</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,7 +2956,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>32.26041896250234</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652616</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445519</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553.8524235344764</v>
+        <v>416.9099126163967</v>
       </c>
       <c r="C2" t="n">
-        <v>553.8524235344764</v>
+        <v>416.9099126163967</v>
       </c>
       <c r="D2" t="n">
-        <v>553.8524235344764</v>
+        <v>416.9099126163967</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344764</v>
+        <v>416.9099126163967</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672984</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>1001.061522860019</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>936.972587242446</v>
       </c>
       <c r="U2" t="n">
-        <v>960.449717235124</v>
+        <v>683.2875691835748</v>
       </c>
       <c r="V2" t="n">
-        <v>960.449717235124</v>
+        <v>683.2875691835748</v>
       </c>
       <c r="W2" t="n">
-        <v>820.2300801016544</v>
+        <v>683.2875691835748</v>
       </c>
       <c r="X2" t="n">
-        <v>820.2300801016544</v>
+        <v>416.9099126163967</v>
       </c>
       <c r="Y2" t="n">
-        <v>553.8524235344764</v>
+        <v>416.9099126163967</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>567.1498234078708</v>
+        <v>186.9069872370006</v>
       </c>
       <c r="C3" t="n">
-        <v>567.1498234078708</v>
+        <v>186.9069872370006</v>
       </c>
       <c r="D3" t="n">
-        <v>418.2154137466196</v>
+        <v>186.9069872370006</v>
       </c>
       <c r="E3" t="n">
-        <v>258.9779587411641</v>
+        <v>27.66953223154508</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9779587411641</v>
+        <v>27.66953223154508</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902313</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>26.30736892571865</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>100.9913896951728</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>247.7358133554696</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>438.3365024519934</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>648.3904695545984</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4437,22 +4437,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374622</v>
+        <v>858.0464416374626</v>
       </c>
       <c r="U3" t="n">
-        <v>858.0464416374622</v>
+        <v>629.9105956742761</v>
       </c>
       <c r="V3" t="n">
-        <v>858.0464416374622</v>
+        <v>394.7584874425334</v>
       </c>
       <c r="W3" t="n">
-        <v>858.0464416374622</v>
+        <v>394.7584874425334</v>
       </c>
       <c r="X3" t="n">
-        <v>735.3651604279389</v>
+        <v>186.9069872370006</v>
       </c>
       <c r="Y3" t="n">
-        <v>735.3651604279389</v>
+        <v>186.9069872370006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>443.3889527368033</v>
+        <v>659.6853352735299</v>
       </c>
       <c r="C4" t="n">
-        <v>274.4527698088964</v>
+        <v>490.749152345623</v>
       </c>
       <c r="D4" t="n">
-        <v>124.3361303965607</v>
+        <v>490.749152345623</v>
       </c>
       <c r="E4" t="n">
-        <v>124.3361303965607</v>
+        <v>342.8360587632299</v>
       </c>
       <c r="F4" t="n">
-        <v>124.3361303965607</v>
+        <v>342.8360587632299</v>
       </c>
       <c r="G4" t="n">
-        <v>124.3361303965607</v>
+        <v>174.2666981182333</v>
       </c>
       <c r="H4" t="n">
-        <v>124.3361303965607</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="U4" t="n">
-        <v>926.0629918407075</v>
+        <v>659.6853352735299</v>
       </c>
       <c r="V4" t="n">
-        <v>671.3785036348206</v>
+        <v>659.6853352735299</v>
       </c>
       <c r="W4" t="n">
-        <v>671.3785036348206</v>
+        <v>659.6853352735299</v>
       </c>
       <c r="X4" t="n">
-        <v>443.3889527368033</v>
+        <v>659.6853352735299</v>
       </c>
       <c r="Y4" t="n">
-        <v>443.3889527368033</v>
+        <v>659.6853352735299</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006025</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>788.477863438847</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716689</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044908</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356496</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
         <v>21.0971104001205</v>
@@ -4565,22 +4565,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4598,19 +4598,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
         <v>21.0971104001205</v>
@@ -4644,52 +4644,52 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004804</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699346</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302313</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267552</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293602</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>826.7196740428383</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>591.5675658110956</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>337.330209082894</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>129.4787088773612</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>186.4381933466805</v>
+        <v>46.62313952225176</v>
       </c>
       <c r="C7" t="n">
-        <v>186.4381933466805</v>
+        <v>46.62313952225176</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434482</v>
+        <v>46.62313952225176</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>46.62313952225176</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>46.62313952225176</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>46.62313952225176</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
         <v>21.0971104001205</v>
@@ -4729,7 +4729,7 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375337</v>
@@ -4750,25 +4750,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>862.4538656421157</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>862.4538656421157</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>862.4538656421157</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="V7" t="n">
-        <v>862.4538656421157</v>
+        <v>533.7933752329599</v>
       </c>
       <c r="W7" t="n">
-        <v>596.0762090749377</v>
+        <v>267.4157186657819</v>
       </c>
       <c r="X7" t="n">
-        <v>368.0866581769203</v>
+        <v>267.4157186657819</v>
       </c>
       <c r="Y7" t="n">
-        <v>368.0866581769203</v>
+        <v>46.62313952225176</v>
       </c>
     </row>
     <row r="8">
@@ -4787,61 +4787,61 @@
         <v>855.1508416752076</v>
       </c>
       <c r="E8" t="n">
-        <v>469.3625890769633</v>
+        <v>469.3625890769634</v>
       </c>
       <c r="F8" t="n">
-        <v>58.37668428735578</v>
+        <v>58.37668428735589</v>
       </c>
       <c r="G8" t="n">
-        <v>46.51640239181681</v>
+        <v>46.51640239181693</v>
       </c>
       <c r="H8" t="n">
-        <v>46.51640239181681</v>
+        <v>46.51640239181693</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181681</v>
+        <v>46.51640239181693</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229157</v>
+        <v>166.4989367229161</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677483</v>
+        <v>397.0601716677497</v>
       </c>
       <c r="L8" t="n">
-        <v>719.993533093756</v>
+        <v>719.9935330937581</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721575</v>
+        <v>1110.988557721578</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999418</v>
+        <v>1512.924098999422</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830553</v>
+        <v>1879.125171830557</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271719</v>
+        <v>2157.168314271724</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257579</v>
+        <v>2317.794388257584</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.82011959084</v>
+        <v>2325.820119590846</v>
       </c>
       <c r="S8" t="n">
-        <v>2325.82011959084</v>
+        <v>2196.656028259782</v>
       </c>
       <c r="T8" t="n">
-        <v>2325.82011959084</v>
+        <v>2196.656028259782</v>
       </c>
       <c r="U8" t="n">
-        <v>2325.82011959084</v>
+        <v>2196.656028259782</v>
       </c>
       <c r="V8" t="n">
-        <v>2325.82011959084</v>
+        <v>2196.656028259782</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.82011959084</v>
+        <v>2196.656028259782</v>
       </c>
       <c r="X8" t="n">
         <v>1972.518389198181</v>
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>812.4820996906757</v>
+        <v>830.0773309849285</v>
       </c>
       <c r="C9" t="n">
-        <v>638.0290704095487</v>
+        <v>655.6243017038015</v>
       </c>
       <c r="D9" t="n">
-        <v>489.0946607482974</v>
+        <v>506.6898920425502</v>
       </c>
       <c r="E9" t="n">
-        <v>329.8572057428419</v>
+        <v>347.4524370370947</v>
       </c>
       <c r="F9" t="n">
-        <v>183.3226477697269</v>
+        <v>200.9178790639797</v>
       </c>
       <c r="G9" t="n">
-        <v>46.51640239181681</v>
+        <v>64.11163368606964</v>
       </c>
       <c r="H9" t="n">
-        <v>46.51640239181681</v>
+        <v>46.51640239181693</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181681</v>
+        <v>46.51640239181693</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977914</v>
+        <v>99.15933091977951</v>
       </c>
       <c r="K9" t="n">
-        <v>402.9718154420767</v>
+        <v>267.2893053412826</v>
       </c>
       <c r="L9" t="n">
-        <v>675.3658557344907</v>
+        <v>539.6833456336972</v>
       </c>
       <c r="M9" t="n">
-        <v>1012.593720931154</v>
+        <v>876.9112108303614</v>
       </c>
       <c r="N9" t="n">
-        <v>1373.15564918249</v>
+        <v>1237.473139081698</v>
       </c>
       <c r="O9" t="n">
-        <v>1680.779576843377</v>
+        <v>1545.097066742586</v>
       </c>
       <c r="P9" t="n">
-        <v>2223.61997410603</v>
+        <v>2015.643459247545</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.82011959084</v>
+        <v>2325.820119590846</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.82011959084</v>
+        <v>2325.820119590846</v>
       </c>
       <c r="S9" t="n">
-        <v>2308.224888296593</v>
+        <v>2325.820119590846</v>
       </c>
       <c r="T9" t="n">
-        <v>2113.795701796925</v>
+        <v>2131.390933091178</v>
       </c>
       <c r="U9" t="n">
-        <v>1885.698700641175</v>
+        <v>1903.293931935428</v>
       </c>
       <c r="V9" t="n">
-        <v>1650.546592409432</v>
+        <v>1668.141823703685</v>
       </c>
       <c r="W9" t="n">
-        <v>1396.30923568123</v>
+        <v>1413.904466975483</v>
       </c>
       <c r="X9" t="n">
-        <v>1188.457735475698</v>
+        <v>1206.05296676995</v>
       </c>
       <c r="Y9" t="n">
-        <v>980.6974367107437</v>
+        <v>998.2926680049966</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.8639173277518</v>
+        <v>513.4823183144526</v>
       </c>
       <c r="C10" t="n">
-        <v>302.9277343998449</v>
+        <v>344.5461353865458</v>
       </c>
       <c r="D10" t="n">
-        <v>302.9277343998449</v>
+        <v>194.4294959742101</v>
       </c>
       <c r="E10" t="n">
-        <v>155.0146408174518</v>
+        <v>46.51640239181693</v>
       </c>
       <c r="F10" t="n">
-        <v>155.0146408174518</v>
+        <v>46.51640239181693</v>
       </c>
       <c r="G10" t="n">
-        <v>155.0146408174518</v>
+        <v>46.51640239181693</v>
       </c>
       <c r="H10" t="n">
-        <v>155.0146408174518</v>
+        <v>46.51640239181693</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181681</v>
+        <v>46.51640239181693</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909533</v>
+        <v>65.89540801909561</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736015</v>
+        <v>227.577903973602</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632611</v>
+        <v>490.002268063262</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794043</v>
+        <v>777.0810884794055</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620618</v>
+        <v>1062.76843262062</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257114</v>
+        <v>1310.630639257116</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325116</v>
+        <v>1499.198894325118</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718229</v>
+        <v>1546.318699718232</v>
       </c>
       <c r="R10" t="n">
-        <v>1439.783439600084</v>
+        <v>1439.783439600087</v>
       </c>
       <c r="S10" t="n">
-        <v>1241.623008901908</v>
+        <v>1439.783439600087</v>
       </c>
       <c r="T10" t="n">
-        <v>1018.268998131449</v>
+        <v>1439.783439600087</v>
       </c>
       <c r="U10" t="n">
-        <v>1018.268998131449</v>
+        <v>1170.607850494109</v>
       </c>
       <c r="V10" t="n">
-        <v>763.5845099255617</v>
+        <v>915.9233622882225</v>
       </c>
       <c r="W10" t="n">
-        <v>474.1673398886011</v>
+        <v>915.9233622882225</v>
       </c>
       <c r="X10" t="n">
-        <v>471.8639173277518</v>
+        <v>915.9233622882225</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.8639173277518</v>
+        <v>695.1307831446924</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191922</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349506</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400828</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>465.5282911402527</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>465.5282911402527</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578598</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578598</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578598</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5203,46 +5203,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797836</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910818</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570827</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279812</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885337</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358027</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832672</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487577</v>
       </c>
       <c r="T13" t="n">
-        <v>2079.252410323026</v>
+        <v>1977.461080510519</v>
       </c>
       <c r="U13" t="n">
-        <v>1790.177183667224</v>
+        <v>1688.385853854717</v>
       </c>
       <c r="V13" t="n">
-        <v>1535.492695461337</v>
+        <v>1433.70136564883</v>
       </c>
       <c r="W13" t="n">
-        <v>1246.075525424376</v>
+        <v>1144.284195611869</v>
       </c>
       <c r="X13" t="n">
-        <v>1018.085974526359</v>
+        <v>916.2946447138522</v>
       </c>
       <c r="Y13" t="n">
-        <v>797.2933953828287</v>
+        <v>695.5020655703223</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,34 +5340,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273892</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516139</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.7012443408905</v>
+        <v>1098.667160263525</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>929.7309773356181</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232826</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408897</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429796</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578597</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.903366400058</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172272</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172272</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135312</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237295</v>
       </c>
       <c r="Y16" t="n">
-        <v>813.3497091711303</v>
+        <v>1280.315625093765</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5531,34 +5531,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5580,31 +5580,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400746</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400746</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>408.9258559154846</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330917</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330917</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W19" t="n">
-        <v>1339.368993063877</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X19" t="n">
-        <v>1111.379442165859</v>
+        <v>916.294644713844</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703141</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168617</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206044</v>
+        <v>513.8536007400746</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926976</v>
+        <v>407.9027098310019</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803618</v>
+        <v>407.9027098310019</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979687</v>
+        <v>407.9027098310019</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330917</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>916.294644713844</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508442</v>
+        <v>695.5020655703141</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168633</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362709</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6017,22 +6017,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400746</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121679</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121679</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121679</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121679</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270481</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038347</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179775</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.294644713844</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703141</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2414.376801799955</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2231.521967454859</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2011.9205024778</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1722.845275821998</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1468.160787616111</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1178.743617579151</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,28 +6719,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345474</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954147</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,22 +6883,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6938,16 +6938,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7023,16 +7023,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,25 +7099,25 @@
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547835</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954145</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,34 +7819,34 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.314107919012335</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167801</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069086</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>137.0530405058535</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>245.4385214099428</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864783</v>
+        <v>27.38164655864765</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>-1.37176157841588e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>148.8416693418263</v>
       </c>
       <c r="U2" t="n">
-        <v>157.686423135091</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.005074307923645e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>119.4047645947958</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.421048022931</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922686</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>34.39816980427065</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>109.422330277101</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>116.6691671648106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986276</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>44.73700564186802</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.421048022931</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856535</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>12.10766347585297</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>62.3554390986456</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856535</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>25.74504007796156</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392193825</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856533</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>220.7351665485983</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>34.11482774761934</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1094844.797097709</v>
+        <v>1094844.797097708</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1299363.83104917</v>
+        <v>1299363.831049171</v>
       </c>
     </row>
     <row r="6">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101551.2845365931</v>
+        <v>101551.2845365929</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796426</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="E2" t="n">
         <v>121071.9899535009</v>
@@ -26341,10 +26341,10 @@
         <v>121071.9899535009</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="N2" t="n">
         <v>123156.2654796425</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512976</v>
+        <v>331437.5228512993</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424119</v>
+        <v>563905.7843424098</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201194</v>
+        <v>99845.14336201224</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569559</v>
+        <v>147342.6769569554</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165439.1551052515</v>
+        <v>165439.1551052511</v>
       </c>
       <c r="C4" t="n">
         <v>247648.567042389</v>
       </c>
       <c r="D4" t="n">
-        <v>152658.8108876533</v>
+        <v>152658.8108876529</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744591</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744468</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744435</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744322</v>
+        <v>8727.25639174447</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744299</v>
+        <v>8727.256391744359</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.25639174426</v>
+        <v>8727.256391744306</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="L4" t="n">
-        <v>16718.11565483778</v>
+        <v>16718.1156548378</v>
       </c>
       <c r="M4" t="n">
-        <v>16718.11565483778</v>
+        <v>16718.11565483776</v>
       </c>
       <c r="N4" t="n">
         <v>16718.11565483777</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483777</v>
+        <v>16718.11565483776</v>
       </c>
       <c r="P4" t="n">
-        <v>16718.11565483777</v>
+        <v>16718.11565483778</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543579</v>
+        <v>88290.79546543592</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-807023.6543641177</v>
+        <v>-807383.737379835</v>
       </c>
       <c r="C6" t="n">
         <v>-187540.1047670127</v>
       </c>
       <c r="D6" t="n">
-        <v>-449230.8637247443</v>
+        <v>-449230.8637247456</v>
       </c>
       <c r="E6" t="n">
-        <v>-552683.5806045625</v>
+        <v>-552718.3185299962</v>
       </c>
       <c r="F6" t="n">
-        <v>11222.2037378495</v>
+        <v>11187.46581241382</v>
       </c>
       <c r="G6" t="n">
-        <v>11222.20373784953</v>
+        <v>11187.46581241368</v>
       </c>
       <c r="H6" t="n">
-        <v>11222.20373784944</v>
+        <v>11187.46581241363</v>
       </c>
       <c r="I6" t="n">
-        <v>11222.20373784947</v>
+        <v>11187.46581241356</v>
       </c>
       <c r="J6" t="n">
-        <v>-57776.95068126451</v>
+        <v>-57811.68860670028</v>
       </c>
       <c r="K6" t="n">
-        <v>11222.20373784952</v>
+        <v>11187.46581241379</v>
       </c>
       <c r="L6" t="n">
-        <v>-96571.10939112265</v>
+        <v>-96571.10939112303</v>
       </c>
       <c r="M6" t="n">
-        <v>-144068.6429860666</v>
+        <v>-144068.6429860662</v>
       </c>
       <c r="N6" t="n">
-        <v>3274.033970889344</v>
+        <v>3274.033970889432</v>
       </c>
       <c r="O6" t="n">
-        <v>3274.033970889344</v>
+        <v>3274.03397088933</v>
       </c>
       <c r="P6" t="n">
-        <v>3274.033970889373</v>
+        <v>3274.033970889315</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896796</v>
+        <v>885.813286589681</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977101</v>
+        <v>581.4550298977116</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202012</v>
+        <v>271.7582728202026</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519944</v>
+        <v>482.1622137519923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>263.7138800015063</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>317.7411498962054</v>
+      </c>
+      <c r="E4" t="n">
+        <v>591.2532582019363</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="J4" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>317.7411498962039</v>
-      </c>
-      <c r="E4" t="n">
-        <v>591.2532582019385</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>263.7138800015059</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962039</v>
+        <v>317.7411498962052</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019385</v>
+        <v>591.2532582019365</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962039</v>
+        <v>317.7411498962054</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019385</v>
+        <v>591.2532582019363</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>99.51163602467594</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>210.4235279552781</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,10 +27470,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>129.5160219733131</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27512,16 +27512,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>84.31851680604946</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,25 +27540,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>137.9670401186157</v>
       </c>
       <c r="I4" t="n">
-        <v>19.94394372833278</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117124</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695013</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.9691616191767</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>187.4310348820948</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27670,7 +27670,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>144.5964234373403</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27749,19 +27749,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778207</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>98.38491328483612</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>127.1113905049468</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>14.24152642332379</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508475</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27871,7 +27871,7 @@
         <v>303.0051123819518</v>
       </c>
       <c r="I8" t="n">
-        <v>73.1881841181501</v>
+        <v>73.18818411814991</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177536</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>207.5073162493723</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>19.96238758973664</v>
+        <v>147.834838007484</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27947,10 +27947,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696367</v>
+        <v>76.41464773565346</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906616</v>
+        <v>23.79630926906606</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>118.8731443045397</v>
+        <v>136.2924232858444</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>107.4132560413785</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.1788263911949</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.1204706627545</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2319001807608</v>
+        <v>19.74806696584312</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>223.4292670537963</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>9.139057510765265e-12</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.929428045903997e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30709,10 +30709,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551473</v>
+        <v>3.561058438551478</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381528</v>
+        <v>36.46968973381534</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522558</v>
+        <v>137.287705452256</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490084</v>
+        <v>302.2403836490088</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528923</v>
+        <v>452.979987352893</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417121</v>
+        <v>561.9617295417129</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483019</v>
+        <v>625.2907025483028</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368363</v>
+        <v>635.4085598368372</v>
       </c>
       <c r="O8" t="n">
-        <v>599.99828498849</v>
+        <v>599.9982849884909</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867504</v>
+        <v>512.0846547867512</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561257</v>
+        <v>384.5542494561262</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406592</v>
+        <v>223.6923371406595</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849177</v>
+        <v>81.1476191684919</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475908</v>
+        <v>15.58853331475911</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841178</v>
+        <v>0.2848846750841182</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079688</v>
+        <v>1.905334239079691</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953278</v>
+        <v>18.40151751953281</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234892</v>
+        <v>65.60032358234902</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474367</v>
+        <v>180.012301947437</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657758</v>
+        <v>307.6696959657763</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247367</v>
+        <v>413.6998750247374</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913753</v>
+        <v>482.768241191376</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139756</v>
+        <v>495.5456800139764</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059467</v>
+        <v>453.3274845059474</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730328</v>
+        <v>363.8352723730333</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726985</v>
+        <v>243.2142442726988</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053161</v>
+        <v>118.2978574053163</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799331</v>
+        <v>35.39074781799336</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150144</v>
+        <v>7.679834060150156</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815585</v>
+        <v>0.1253509367815587</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719094</v>
+        <v>1.597368221719097</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401159</v>
+        <v>14.20205564401162</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587968</v>
+        <v>48.03721888587976</v>
       </c>
       <c r="J10" t="n">
-        <v>112.93393327554</v>
+        <v>112.9339332755401</v>
       </c>
       <c r="K10" t="n">
-        <v>185.585144305182</v>
+        <v>185.5851443051823</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817643</v>
+        <v>237.4850899817646</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191122</v>
+        <v>250.3947295191125</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108866</v>
+        <v>244.440902510887</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753499</v>
+        <v>225.7807373753502</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522802</v>
+        <v>193.1944256522805</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750416</v>
+        <v>133.7578062750418</v>
       </c>
       <c r="R10" t="n">
-        <v>71.8234838602058</v>
+        <v>71.82348386020591</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577729</v>
+        <v>27.83777164577734</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527037</v>
+        <v>6.825118765527048</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013251</v>
+        <v>0.08712917573013264</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>616.9033572954403</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366847</v>
+        <v>366.8427442359113</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532628</v>
       </c>
       <c r="N18" t="n">
-        <v>510.8679233250724</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>595.327537312171</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>333.9544784328829</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,16 +32795,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>232.75998908852</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>574.6535388222619</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>687.0167715190038</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>687.0167715190038</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>453.7122424932254</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,31 +34445,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5.262887399594097</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34790,7 +34790,7 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127262</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659563</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223221</v>
+        <v>121.1944791223225</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079117</v>
+        <v>232.8901363079124</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717249</v>
+        <v>326.1953145717256</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210291</v>
+        <v>394.9444693210301</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402454</v>
+        <v>405.9954962402463</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668033</v>
+        <v>369.9000735668042</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314809</v>
+        <v>280.8516590314817</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816762</v>
+        <v>162.2485595816767</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527039</v>
+        <v>8.10679932652738</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528077003</v>
+        <v>53.17467528077029</v>
       </c>
       <c r="K9" t="n">
-        <v>306.8812974972703</v>
+        <v>169.8282569914173</v>
       </c>
       <c r="L9" t="n">
-        <v>275.1454952448626</v>
+        <v>275.1454952448632</v>
       </c>
       <c r="M9" t="n">
-        <v>340.634207269357</v>
+        <v>340.6342072693577</v>
       </c>
       <c r="N9" t="n">
-        <v>364.2039679306423</v>
+        <v>364.2039679306431</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615023</v>
+        <v>310.7312400615029</v>
       </c>
       <c r="P9" t="n">
-        <v>548.3236335986396</v>
+        <v>475.2993863686459</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.2324701866769</v>
+        <v>313.3097579225264</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886718</v>
+        <v>19.57475315886735</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792991</v>
+        <v>163.3156524792994</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420804</v>
+        <v>265.0751152420808</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809527</v>
+        <v>289.9786064809531</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901152</v>
+        <v>288.5730748901156</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893895</v>
+        <v>250.3658652893899</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171737</v>
+        <v>190.472984917174</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334723</v>
+        <v>47.59576302334743</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>485.561645212107</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191404</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533515</v>
+        <v>235.5010321525779</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312445</v>
       </c>
       <c r="N18" t="n">
-        <v>379.5262112417391</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295353</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396434</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9858252288377</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>191.3582339884385</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295353</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,16 +36443,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>98.78558167418976</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295356</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899076</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998986</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>432.0572943778175</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>544.4205270745593</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>544.4205270745593</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>322.3705304098921</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38093,31 +38093,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
